--- a/data/设备Top10_日_仅排序.xlsx
+++ b/data/设备Top10_日_仅排序.xlsx
@@ -448,101 +448,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2#取水泵组</t>
+          <t>1#提升泵组</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218034.915</v>
+        <v>51929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5#取水泵组</t>
+          <t>3#提升泵组</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176023.288</v>
+        <v>20616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1#取水泵组</t>
+          <t>臭氧发生器</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89505.80558500001</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大反冲洗泵</t>
+          <t>2#提升泵组</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44402.90399999999</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2#提升泵组</t>
+          <t>脱水机</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43407.47565</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2#送水泵</t>
+          <t>柱塞泵</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36286.88174999999</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>投加泵</t>
+          <t>尾气破坏</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34582.31561988</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1#提升泵组</t>
+          <t>大反冲洗泵</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27371.7759</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4#送水泵</t>
+          <t>空压机</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25095.23100000001</v>
+        <v>671.328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5#送水泵</t>
+          <t>冷却塔循环泵</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22683.7485</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
